--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2323372.505578184</v>
+        <v>2319068.200608741</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>97.07348307198153</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83561175645088</v>
+        <v>12.83561175645086</v>
       </c>
       <c r="H2" t="n">
-        <v>263.5639921989967</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587336</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602297</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>72.05077482233933</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989982</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928079</v>
+        <v>99.48674643928072</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225839</v>
+        <v>43.94827785225814</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072437</v>
+        <v>18.20026557072391</v>
       </c>
       <c r="S3" t="n">
-        <v>147.164217801745</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0272801227506784</v>
+        <v>110.5064874446445</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8843116769506</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1699595597229</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436559</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>17.05500551840279</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>214.4245525462727</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>219.4450108596164</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>208.2085323732918</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>95.17764098310099</v>
+        <v>10.18456372565657</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>177.4169757450566</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>197.745679103337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>166.4775048717223</v>
       </c>
       <c r="G8" t="n">
-        <v>155.8087777367787</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>19.43968007435837</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>144.5056468392532</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>87.73390848162707</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.640152769372291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>18.70843787976995</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105632</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>113.3174219124923</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>129.2171928962056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>192.9787615936019</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>242.004521877306</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,16 +3006,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>81.8827028156209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>128.3548363691468</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>60.6471314173121</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>30.87238256912046</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3711,25 +3711,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.4343500806758</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>117.8112368377031</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4030,7 +4030,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>152.4905881546156</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2221392720401</v>
+        <v>521.803459303067</v>
       </c>
       <c r="C2" t="n">
-        <v>307.2221392720401</v>
+        <v>521.803459303067</v>
       </c>
       <c r="D2" t="n">
-        <v>307.2221392720401</v>
+        <v>255.5772045566042</v>
       </c>
       <c r="E2" t="n">
-        <v>307.2221392720401</v>
+        <v>157.5231812515723</v>
       </c>
       <c r="F2" t="n">
-        <v>300.2766385228366</v>
+        <v>150.5776805023688</v>
       </c>
       <c r="G2" t="n">
-        <v>287.3113741223812</v>
+        <v>137.6124161019134</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591974</v>
+        <v>137.6124161019134</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="J2" t="n">
-        <v>49.14994660701029</v>
+        <v>50.19026732551613</v>
       </c>
       <c r="K2" t="n">
-        <v>142.990686534954</v>
+        <v>142.9906865349472</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965844</v>
+        <v>295.0195743965797</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173918</v>
+        <v>495.8504424173896</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238171</v>
+        <v>704.5447722238172</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381109</v>
+        <v>888.2736487381133</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266317</v>
+        <v>1010.580993266322</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S2" t="n">
-        <v>899.9120886341389</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="T2" t="n">
-        <v>827.1335282075335</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="U2" t="n">
-        <v>573.4483940185014</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="V2" t="n">
-        <v>573.4483940185014</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="W2" t="n">
-        <v>573.4483940185014</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="X2" t="n">
-        <v>573.4483940185014</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.2221392720401</v>
+        <v>788.02971404953</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303.366445436523</v>
+        <v>340.4220115777932</v>
       </c>
       <c r="C3" t="n">
-        <v>303.366445436523</v>
+        <v>165.9689822966662</v>
       </c>
       <c r="D3" t="n">
-        <v>303.366445436523</v>
+        <v>165.9689822966662</v>
       </c>
       <c r="E3" t="n">
-        <v>303.366445436523</v>
+        <v>165.9689822966662</v>
       </c>
       <c r="F3" t="n">
-        <v>303.366445436523</v>
+        <v>165.9689822966662</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966664</v>
+        <v>165.9689822966662</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668578</v>
+        <v>65.47731922668567</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957342</v>
+        <v>95.64621773957471</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557043</v>
+        <v>242.2253570557071</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185454</v>
+        <v>432.6331671185501</v>
       </c>
       <c r="N3" t="n">
-        <v>642.4891502533757</v>
+        <v>642.4891502533824</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809288992</v>
+        <v>812.2465809289076</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280447</v>
+        <v>929.1588188821936</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.871862158892</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="S3" t="n">
-        <v>887.2211371066239</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="T3" t="n">
-        <v>887.2211371066239</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="U3" t="n">
-        <v>887.2211371066239</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="V3" t="n">
-        <v>887.2211371066239</v>
+        <v>1035.871862158898</v>
       </c>
       <c r="W3" t="n">
-        <v>887.1935814270778</v>
+        <v>924.249147568348</v>
       </c>
       <c r="X3" t="n">
-        <v>679.342081221545</v>
+        <v>716.3976473628152</v>
       </c>
       <c r="Y3" t="n">
-        <v>471.581782456591</v>
+        <v>508.6373485978613</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.9084072363951</v>
+        <v>168.998212958313</v>
       </c>
       <c r="C4" t="n">
-        <v>460.9722243084882</v>
+        <v>168.998212958313</v>
       </c>
       <c r="D4" t="n">
-        <v>460.9722243084882</v>
+        <v>168.998212958313</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0591307260951</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0591307260951</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4891189311954</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4891189311954</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591974</v>
+        <v>21.08511937591986</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953605</v>
+        <v>126.3272391953614</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735288</v>
+        <v>316.5273535735304</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559526</v>
+        <v>527.4558292559553</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568259</v>
+        <v>738.8035136568295</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005205</v>
+        <v>918.0010123005252</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485822</v>
+        <v>1047.814747485828</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795987</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="T4" t="n">
-        <v>828.7841503680518</v>
+        <v>1054.255968795993</v>
       </c>
       <c r="U4" t="n">
-        <v>828.7841503680518</v>
+        <v>788.02971404953</v>
       </c>
       <c r="V4" t="n">
-        <v>828.7841503680518</v>
+        <v>788.02971404953</v>
       </c>
       <c r="W4" t="n">
-        <v>811.5568720666348</v>
+        <v>788.02971404953</v>
       </c>
       <c r="X4" t="n">
-        <v>811.5568720666348</v>
+        <v>571.4392569320828</v>
       </c>
       <c r="Y4" t="n">
-        <v>811.5568720666348</v>
+        <v>350.6466777885527</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>367.789405660333</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C5" t="n">
-        <v>367.789405660333</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D5" t="n">
-        <v>367.789405660333</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>367.789405660333</v>
+        <v>300.438579740743</v>
       </c>
       <c r="F5" t="n">
-        <v>360.8439049111296</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>347.8800921376851</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515909</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
         <v>704.5463761991318</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>634.167062227511</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>367.789405660333</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>367.789405660333</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489.334169819989</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>314.881140538862</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776107</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891335</v>
+        <v>930.1763583891336</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4676,22 +4676,22 @@
         <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>839.7105578442523</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>585.4732011160506</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>489.334169819989</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>489.334169819989</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.2577368622518</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434483</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434483</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434483</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434483</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0629918407075</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U7" t="n">
-        <v>926.0629918407075</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="V7" t="n">
-        <v>671.3785036348206</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="W7" t="n">
-        <v>405.0008470676427</v>
+        <v>650.177417354891</v>
       </c>
       <c r="X7" t="n">
-        <v>405.0008470676427</v>
+        <v>650.177417354891</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.2577368622518</v>
+        <v>650.177417354891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.669246337129</v>
+        <v>1308.132293616578</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.669246337129</v>
+        <v>939.1697766761665</v>
       </c>
       <c r="D8" t="n">
-        <v>1005.403547730379</v>
+        <v>939.1697766761665</v>
       </c>
       <c r="E8" t="n">
-        <v>619.6152951321346</v>
+        <v>939.1697766761665</v>
       </c>
       <c r="F8" t="n">
-        <v>208.6293903425271</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.24678656800311</v>
@@ -4804,16 +4804,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4840,16 +4840,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312941</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.808578312941</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.669246337129</v>
+        <v>1694.7321336807</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
@@ -4886,10 +4886,10 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
         <v>1218.104987164206</v>
@@ -4898,10 +4898,10 @@
         <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>641.3764301283679</v>
+        <v>934.7929217761711</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>765.8567388482642</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>617.9436452658711</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>471.0536977679607</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>303.0672330762393</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263853</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X10" t="n">
-        <v>641.3764301283679</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y10" t="n">
-        <v>641.3764301283679</v>
+        <v>1116.441386606411</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,34 +5059,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511905</v>
+        <v>869.9745311434716</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232836</v>
+        <v>701.0383482155647</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.91737983266</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487564</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831762</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625875</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588915</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.896109690897</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y13" t="n">
-        <v>1130.19898568143</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="14">
@@ -5275,16 +5275,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5305,13 +5305,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>2233.355914590559</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>2233.355914590559</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>2728.681520806318</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400685</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121616</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998259</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5439,49 +5439,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038307</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797708</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703082</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5548,7 +5548,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>2715.159942084667</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3312.538429711219</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3940.136393265826</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,34 +5770,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>746.8882603249853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,28 +5986,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111716</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6423,13 +6423,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1189.252353651541</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>961.2628027535234</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6487,22 +6487,22 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>417.9651836029407</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669524</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467153</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>3594.861633643294</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499764</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,25 +6712,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>835.5837926935562</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6882,28 +6882,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1466.014387565343</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1238.024836667326</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1017.232257523796</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913854</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2165.878320670274</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1876.803094014472</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7168,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2092.798483612593</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908938</v>
@@ -7326,10 +7326,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1426.218472639697</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797189</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,10 +7423,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694708</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913447</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084667</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300426</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3210.485548300426</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>3838.083511855033</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2978.516248701936</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>2859.514999370922</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>2709.398359958587</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>2561.485266376194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>2561.485266376194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7645,25 +7645,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694708</v>
@@ -7736,10 +7736,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
         <v>1896.176478190824</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797189</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.050829008590473</v>
       </c>
       <c r="K2" t="n">
-        <v>1.050829008600317</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518717</v>
+        <v>60.60994937518632</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362964</v>
+        <v>2.123866789362268</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.84203171541787</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.84203171541293</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127237</v>
+        <v>97.32166909127245</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>54.95314511566511</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.184988818213704e-13</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.790567694115452e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>60.88156453658529</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.9445005827225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>127.7255247667992</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>38.59775584153164</v>
       </c>
     </row>
     <row r="17">
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.2672314396025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.61478728573169</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>59.15888173022611</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>44.51847645928498</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>143.8269525734162</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>38.89198472948104</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>186.5330677581678</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>98.08864825591516</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>49.43558426092473</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>117.6820817884486</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.6938862346285</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>831812.9582049471</v>
+        <v>831812.9582049467</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>835491.4104457163</v>
+        <v>835491.4104457165</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
+        <v>615781.3273982123</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982124</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.327398212</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675048</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163097</v>
+        <v>679693.2761163134</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389986499</v>
+        <v>373.9475389951887</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059436</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491424</v>
+        <v>68959.93717491458</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395627107</v>
+        <v>38.5763239559167</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756974</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.015607762</v>
+        <v>246846.0156077611</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
@@ -26426,40 +26426,40 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731924</v>
+        <v>8117.312426731876</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731924</v>
+        <v>8117.312426731874</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673197</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731895</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731969</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731942</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731949</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731975</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731893</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360362</v>
+        <v>63030.89693360378</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373788.8612594629</v>
+        <v>-373788.8612594662</v>
       </c>
       <c r="C6" t="n">
-        <v>305605.7092567158</v>
+        <v>305605.7092567195</v>
       </c>
       <c r="D6" t="n">
-        <v>-2602.809109439477</v>
+        <v>-2602.809109439404</v>
       </c>
       <c r="E6" t="n">
-        <v>-11365.33410768089</v>
+        <v>-11712.71336203766</v>
       </c>
       <c r="F6" t="n">
-        <v>496120.1075168652</v>
+        <v>495772.7282625085</v>
       </c>
       <c r="G6" t="n">
-        <v>496120.1075168657</v>
+        <v>495772.7282625082</v>
       </c>
       <c r="H6" t="n">
-        <v>496120.1075168655</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="I6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625081</v>
       </c>
       <c r="J6" t="n">
-        <v>427160.1703419511</v>
+        <v>426812.7910875938</v>
       </c>
       <c r="K6" t="n">
-        <v>496081.5311929088</v>
+        <v>495734.1519385524</v>
       </c>
       <c r="L6" t="n">
-        <v>400737.4613792954</v>
+        <v>400390.0821249385</v>
       </c>
       <c r="M6" t="n">
-        <v>363512.8137879383</v>
+        <v>363165.4345335813</v>
       </c>
       <c r="N6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625085</v>
       </c>
       <c r="O6" t="n">
-        <v>496120.1075168654</v>
+        <v>495772.7282625088</v>
       </c>
       <c r="P6" t="n">
-        <v>496120.1075168653</v>
+        <v>495772.7282625086</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472689</v>
+        <v>613.6975324726924</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="N4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099649</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.697532472689</v>
+        <v>613.6975324726924</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357481296789274</v>
+        <v>0.3574812967859771</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480611</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025093973</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989965</v>
+        <v>263.5639921989978</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025096246</v>
+        <v>0.1498878025081467</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989967</v>
+        <v>263.5639921989982</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025093973</v>
+        <v>0.1498878025079762</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.1698494644824</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>91.11904942168474</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>284.8568870002803</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.64435824064611</v>
+        <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587342</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.8004413602293</v>
       </c>
       <c r="T2" t="n">
-        <v>140.245231733152</v>
+        <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570568</v>
+        <v>122.6739464570554</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802707</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6677030381689</v>
+        <v>141.1884957162751</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27551,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573037</v>
+        <v>152.3878907573036</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404817</v>
+        <v>15.11777503404772</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704495</v>
+        <v>127.5335881704492</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7303985328715</v>
+        <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>22.69467346577403</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>269.4679928181882</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>11.28510284276447</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917676</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>162.4853592126454</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>105.9851002559762</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,13 +27675,13 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>64.03837846862876</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
         <v>225.8544875035546</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>110.5953442203765</v>
+        <v>195.5884214778209</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27779,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>109.1060225915344</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.83897424875781</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>240.3985408699891</v>
       </c>
       <c r="G8" t="n">
-        <v>255.7389250361753</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>147.8071410242695</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.745862315875627</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28289,7 +28289,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-4.959874494771188e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-5.628055018193885e-12</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28812,13 +28812,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.619826112322824e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29088,19 +29088,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>-6.234920625768703e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-9.094947017729281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-4.576384261737228e-13</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684175</v>
+        <v>2.467125758684189</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612431</v>
+        <v>25.26645167612445</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167174</v>
+        <v>95.11386581167227</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611212</v>
+        <v>209.3942148611224</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262224</v>
+        <v>313.8276482262241</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635533</v>
+        <v>389.3309481635554</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745529</v>
+        <v>433.2056958745554</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364144</v>
+        <v>440.2154169364168</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351734986</v>
+        <v>415.6829351735009</v>
       </c>
       <c r="P2" t="n">
-        <v>354.775768005983</v>
+        <v>354.775768005985</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731059</v>
+        <v>266.4218267731073</v>
       </c>
       <c r="R2" t="n">
-        <v>154.975588438945</v>
+        <v>154.9755884389458</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601569</v>
+        <v>56.21962822601601</v>
       </c>
       <c r="T2" t="n">
-        <v>10.79984300863998</v>
+        <v>10.79984300864004</v>
       </c>
       <c r="U2" t="n">
-        <v>0.197370060694734</v>
+        <v>0.1973700606947351</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752576</v>
+        <v>1.320028654752584</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721567</v>
+        <v>12.74869779721574</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915669</v>
+        <v>45.44835499915694</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773037</v>
+        <v>124.7137598773044</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457263</v>
+        <v>213.1556797457275</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628347</v>
+        <v>286.6141164628363</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976154</v>
+        <v>334.4651551976173</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235659</v>
+        <v>343.3174526235678</v>
       </c>
       <c r="O3" t="n">
-        <v>314.068396641943</v>
+        <v>314.0683966419447</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641126</v>
+        <v>252.067577064114</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592938</v>
+        <v>168.5004998592947</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191876</v>
+        <v>81.95756858191922</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209279</v>
+        <v>24.51895330209293</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550952</v>
+        <v>5.320641814550982</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424848</v>
+        <v>0.08684399044424897</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508128</v>
+        <v>1.106667681508134</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135905</v>
+        <v>9.83928175013596</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753534</v>
+        <v>33.28051536753552</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262461</v>
+        <v>78.24140508262505</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606715</v>
+        <v>128.5746633606722</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023943993</v>
+        <v>164.5313023944002</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840422</v>
+        <v>173.4751893840431</v>
       </c>
       <c r="N4" t="n">
-        <v>169.350337116603</v>
+        <v>169.3503371166039</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735307</v>
+        <v>156.4224464735316</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707648</v>
+        <v>133.8464257707655</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337603</v>
+        <v>92.66832740337655</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320671998</v>
+        <v>49.75980320672026</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410073</v>
+        <v>19.28619950410083</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625635</v>
+        <v>4.728489184625661</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862521</v>
+        <v>0.06036369171862555</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N12" t="n">
-        <v>366.8427442359094</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31867,7 +31867,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>504.7812948344567</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,22 +32320,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>237.3557891543611</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422586</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>150.2061940096322</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33259,34 +33259,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>465.2641870096811</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33496,10 +33496,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>316.0872899694772</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,22 +33733,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>547.692642104456</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33757,7 +33757,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,31 +33973,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>581.2949959490409</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732299</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.3483103344349</v>
+        <v>29.39913934302654</v>
       </c>
       <c r="K2" t="n">
-        <v>94.78862618984215</v>
+        <v>93.73779718124354</v>
       </c>
       <c r="L2" t="n">
-        <v>153.564533193566</v>
+        <v>153.5645331935682</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472802</v>
+        <v>202.8594626472826</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398235</v>
+        <v>210.8023533398259</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518119</v>
+        <v>185.5847237518142</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507134</v>
+        <v>123.5427722507154</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865638</v>
+        <v>44.11613689865786</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136734</v>
+        <v>75.31424077136853</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829605</v>
+        <v>148.0597366829621</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755971</v>
+        <v>192.331121275599</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402326</v>
+        <v>211.9757405402345</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521974986</v>
+        <v>171.4721521975003</v>
       </c>
       <c r="P3" t="n">
-        <v>215.9352013652002</v>
+        <v>118.0931696497838</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327228</v>
+        <v>126.3607574886861</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347887</v>
+        <v>106.3051715347894</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547154</v>
+        <v>192.1213276547163</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458828</v>
+        <v>213.0590663458837</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958316</v>
+        <v>213.4825094958325</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875703</v>
+        <v>181.0075743875712</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356583</v>
+        <v>131.124985035659</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151681641</v>
+        <v>6.506284151682166</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877688</v>
+        <v>125.9385470877689</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35260,19 +35260,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>390.3778271117882</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N12" t="n">
-        <v>235.5010321525761</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,13 +35579,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066213</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>362.6472609124384</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096312</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191315</v>
@@ -35816,13 +35816,13 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066194</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35892,7 +35892,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193518</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>94.75954470991667</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>171.212305634483</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683813</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>18.86448192629892</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>327.4227480353221</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>173.4910455250327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243166</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683813</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>405.5586081824377</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>442.7406161691667</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287855</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396415</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38104,13 +38104,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2319068.200608741</v>
+        <v>2320828.730911526</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5639921989982</v>
+        <v>212.4355068307153</v>
       </c>
       <c r="E2" t="n">
-        <v>97.07348307198153</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587336</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.5639921989982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928072</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225814</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072391</v>
+        <v>18.20026557072394</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>9.555138526236965</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>110.5064874446445</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>106.8177805279451</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.11777503404775</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>263.5639921989982</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>214.4245525462727</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>59.80127191868286</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565657</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>156.6327593577121</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>177.4169757450566</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>166.4775048717223</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>158.4669548105337</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.5056468392532</v>
+        <v>144.7691584824246</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634824</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187867</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,13 +1429,13 @@
         <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>87.73390848162707</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881287</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174141</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>179.9868975105632</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.87604574171</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.752258470135</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2086,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444138</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2335,7 +2335,7 @@
         <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678096</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>83.71156409265971</v>
       </c>
     </row>
     <row r="32">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>142.3575218158278</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>60.6471314173121</v>
+        <v>60.46574022124238</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3559,13 +3559,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4030,7 +4030,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>521.803459303067</v>
+        <v>788.0297140495297</v>
       </c>
       <c r="C2" t="n">
         <v>521.803459303067</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5772045566042</v>
+        <v>307.2221392720415</v>
       </c>
       <c r="E2" t="n">
-        <v>157.5231812515723</v>
+        <v>40.99588452557875</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5776805023688</v>
+        <v>34.05038377637527</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6124161019134</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.6124161019134</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732551613</v>
+        <v>50.19026732551659</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349472</v>
+        <v>142.9906865349476</v>
       </c>
       <c r="L2" t="n">
-        <v>295.0195743965797</v>
+        <v>295.0195743965799</v>
       </c>
       <c r="M2" t="n">
         <v>495.8504424173896</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238172</v>
+        <v>704.5447722238171</v>
       </c>
       <c r="O2" t="n">
-        <v>888.2736487381133</v>
+        <v>888.273648738113</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266322</v>
+        <v>1010.580993266321</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.02971404953</v>
+        <v>1054.255968795992</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>340.4220115777932</v>
+        <v>650.2445712968687</v>
       </c>
       <c r="C3" t="n">
-        <v>165.9689822966662</v>
+        <v>475.7915420157416</v>
       </c>
       <c r="D3" t="n">
-        <v>165.9689822966662</v>
+        <v>326.8571323544904</v>
       </c>
       <c r="E3" t="n">
-        <v>165.9689822966662</v>
+        <v>167.6196773490349</v>
       </c>
       <c r="F3" t="n">
-        <v>165.9689822966662</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9689822966662</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="H3" t="n">
-        <v>65.47731922668567</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591986</v>
+        <v>117.948730774179</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957471</v>
+        <v>192.5098291378337</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557071</v>
+        <v>339.0889684539661</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185501</v>
+        <v>529.4967785168089</v>
       </c>
       <c r="N3" t="n">
-        <v>642.4891502533824</v>
+        <v>739.352761651641</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809289076</v>
+        <v>909.1101923271661</v>
       </c>
       <c r="P3" t="n">
-        <v>929.1588188821936</v>
+        <v>1026.022430280452</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R3" t="n">
         <v>1035.871862158898</v>
@@ -4439,22 +4439,22 @@
         <v>1035.871862158898</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.871862158898</v>
+        <v>1026.220207081891</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.871862158898</v>
+        <v>1026.220207081891</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.871862158898</v>
+        <v>1026.220207081891</v>
       </c>
       <c r="W3" t="n">
-        <v>924.249147568348</v>
+        <v>1026.220207081891</v>
       </c>
       <c r="X3" t="n">
-        <v>716.3976473628152</v>
+        <v>1026.220207081891</v>
       </c>
       <c r="Y3" t="n">
-        <v>508.6373485978613</v>
+        <v>818.4599083169367</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.998212958313</v>
+        <v>607.9915712245271</v>
       </c>
       <c r="C4" t="n">
-        <v>168.998212958313</v>
+        <v>439.0553882966202</v>
       </c>
       <c r="D4" t="n">
-        <v>168.998212958313</v>
+        <v>439.0553882966202</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591986</v>
+        <v>291.1422947142271</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591986</v>
+        <v>144.2523472163167</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591986</v>
+        <v>144.2523472163167</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591986</v>
+        <v>36.35559920829132</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591986</v>
+        <v>36.35559920829132</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591986</v>
+        <v>21.08511937591985</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953614</v>
+        <v>126.3272391953613</v>
       </c>
       <c r="L4" t="n">
         <v>316.5273535735304</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559553</v>
+        <v>527.4558292559551</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8035136568295</v>
+        <v>738.8035136568293</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005252</v>
+        <v>918.0010123005247</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.814747485828</v>
+        <v>1047.814747485827</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795993</v>
+        <v>1054.255968795992</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795993</v>
+        <v>828.7841503680572</v>
       </c>
       <c r="U4" t="n">
-        <v>788.02971404953</v>
+        <v>828.7841503680572</v>
       </c>
       <c r="V4" t="n">
-        <v>788.02971404953</v>
+        <v>828.7841503680572</v>
       </c>
       <c r="W4" t="n">
-        <v>788.02971404953</v>
+        <v>828.7841503680572</v>
       </c>
       <c r="X4" t="n">
-        <v>571.4392569320828</v>
+        <v>828.7841503680572</v>
       </c>
       <c r="Y4" t="n">
-        <v>350.6466777885527</v>
+        <v>607.9915712245271</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C5" t="n">
-        <v>788.4778634388467</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="D5" t="n">
-        <v>522.1002068716687</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>573.7617370571243</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>618.522566969898</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>449.5863840419911</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>449.5863840419911</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>449.5863840419911</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>302.6964365440807</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4755,22 +4755,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>829.3864837640391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>829.3864837640391</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>829.3864837640391</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W7" t="n">
-        <v>650.177417354891</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="X7" t="n">
-        <v>650.177417354891</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.177417354891</v>
+        <v>800.1710318001377</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.132293616578</v>
+        <v>1890.972649740754</v>
       </c>
       <c r="C8" t="n">
-        <v>939.1697766761665</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D8" t="n">
-        <v>939.1697766761665</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E8" t="n">
-        <v>939.1697766761665</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656512</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.7321336807</v>
+        <v>2277.572489804876</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>815.1145481251091</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1565.661695681275</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>934.7929217761711</v>
+        <v>979.320587894841</v>
       </c>
       <c r="C10" t="n">
-        <v>765.8567388482642</v>
+        <v>810.3844049669341</v>
       </c>
       <c r="D10" t="n">
-        <v>765.8567388482642</v>
+        <v>660.2677655545983</v>
       </c>
       <c r="E10" t="n">
-        <v>617.9436452658711</v>
+        <v>512.3546719722052</v>
       </c>
       <c r="F10" t="n">
-        <v>471.0536977679607</v>
+        <v>365.4647244742948</v>
       </c>
       <c r="G10" t="n">
-        <v>303.0672330762393</v>
+        <v>197.4782597825734</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.233965749941</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.233965749941</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="X10" t="n">
-        <v>1337.233965749941</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="Y10" t="n">
-        <v>1116.441386606411</v>
+        <v>1160.969052725081</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5059,7 +5059,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.9745311434716</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>701.0383482155647</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5266,10 +5266,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797189</v>
@@ -5278,16 +5278,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5311,10 +5311,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.8412329032295</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>552.8412329032295</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487562</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510503</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854701</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648814</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138361</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.4896977334693</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616863</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362689</v>
+        <v>379.8308874362705</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,19 +5591,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5697,28 +5697,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362687</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192639</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797189</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6378,16 +6378,16 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797747</v>
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6554,7 +6554,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,19 +6697,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="35">
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6961,7 +6961,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327652</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048583</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D37" t="n">
-        <v>444.7013164925226</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E37" t="n">
-        <v>296.7882229101294</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="F37" t="n">
-        <v>296.7882229101294</v>
+        <v>296.604999479756</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7122,25 +7122,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7171,19 +7171,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7207,7 +7207,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797189</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7402,10 +7402,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7414,40 +7414,40 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
         <v>3467.980956852889</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7505,7 +7505,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7563,16 +7563,16 @@
         <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797747</v>
@@ -7642,22 +7642,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7666,31 +7666,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7739,13 +7739,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008590473</v>
+        <v>1.05082900859103</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518632</v>
+        <v>60.60994937518637</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362268</v>
+        <v>99.96589850477555</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.84203171541293</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-5.458725572646025e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.790567694115452e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>60.88156453658529</v>
+        <v>146.8157004125003</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.59775584153164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>134.8730892594351</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>6.257951202384533</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>104.8770068749567</v>
+        <v>105.0583980710265</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>117.6820817884486</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>831812.9582049467</v>
+        <v>831812.9582049468</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>814465.927270154</v>
+        <v>814465.9272701541</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>814465.9272701541</v>
+        <v>814465.927270154</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675048</v>
-      </c>
       <c r="P2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163134</v>
+        <v>679693.2761163132</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389951887</v>
+        <v>373.9475389953105</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.93717491458</v>
+        <v>68959.93717491461</v>
       </c>
       <c r="K3" t="n">
-        <v>38.5763239559167</v>
+        <v>38.57632395588744</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.6461375698</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246846.0156077611</v>
+        <v>246846.0156077612</v>
       </c>
       <c r="C4" t="n">
         <v>246753.8673982314</v>
@@ -26426,40 +26426,40 @@
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731876</v>
+        <v>8117.312426731872</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731874</v>
+        <v>8117.312426731893</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.31242673197</v>
+        <v>8117.312426731872</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731895</v>
+        <v>8117.312426731893</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731969</v>
+        <v>8117.312426731966</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731893</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731936</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360378</v>
+        <v>63030.89693360377</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-373788.8612594662</v>
+        <v>-373788.8612594658</v>
       </c>
       <c r="C6" t="n">
-        <v>305605.7092567195</v>
+        <v>305605.7092567194</v>
       </c>
       <c r="D6" t="n">
-        <v>-2602.809109439404</v>
+        <v>-2602.8091094392</v>
       </c>
       <c r="E6" t="n">
-        <v>-11712.71336203766</v>
+        <v>-11400.07203311607</v>
       </c>
       <c r="F6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914295</v>
       </c>
       <c r="G6" t="n">
-        <v>495772.7282625082</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="H6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914296</v>
       </c>
       <c r="I6" t="n">
-        <v>495772.7282625081</v>
+        <v>496085.3695914292</v>
       </c>
       <c r="J6" t="n">
-        <v>426812.7910875938</v>
+        <v>427125.4324165146</v>
       </c>
       <c r="K6" t="n">
-        <v>495734.1519385524</v>
+        <v>496046.7932674737</v>
       </c>
       <c r="L6" t="n">
-        <v>400390.0821249385</v>
+        <v>400702.7234538601</v>
       </c>
       <c r="M6" t="n">
-        <v>363165.4345335813</v>
+        <v>363478.0758625028</v>
       </c>
       <c r="N6" t="n">
-        <v>495772.7282625085</v>
+        <v>496085.3695914292</v>
       </c>
       <c r="O6" t="n">
-        <v>495772.7282625088</v>
+        <v>496085.3695914297</v>
       </c>
       <c r="P6" t="n">
-        <v>495772.7282625086</v>
+        <v>496085.3695914292</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726924</v>
+        <v>613.6975324726922</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726924</v>
+        <v>613.6975324726922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967859771</v>
+        <v>0.3574812967860908</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480612</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025079762</v>
+        <v>0.149887802508033</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989978</v>
+        <v>263.5639921989979</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025081467</v>
+        <v>0.149887802508033</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996097</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989982</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025079762</v>
+        <v>0.149887802508033</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.1698494644824</v>
+        <v>119.1698494644825</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.7088995720094</v>
       </c>
       <c r="D2" t="n">
-        <v>91.11904942168474</v>
+        <v>142.2475347899677</v>
       </c>
       <c r="E2" t="n">
-        <v>284.8568870002803</v>
+        <v>118.3663778732637</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3620237587337</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.6739464570554</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928072</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94827785225815</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>185.2889483540337</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>141.1884957162751</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8843116769506</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3878907573036</v>
+        <v>45.57011022935846</v>
       </c>
       <c r="I4" t="n">
         <v>122.1699595597228</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404772</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>204.7303985328714</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2171002436558</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.69467346577403</v>
+        <v>286.2586656647723</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>11.28510284276447</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>162.4853592126454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
@@ -27675,10 +27675,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>289.4396967987302</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,10 +27712,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778209</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>10.2509076808345</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,16 +27827,16 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>109.1060225915344</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>240.3985408699891</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>227.7709838455199</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.745862315875627</v>
+        <v>2.482350672704257</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-6.367759797364126e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28253,7 +28253,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-4.528831807655136e-12</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.959874494771188e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-1.092834328777952e-12</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28526,7 +28526,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-5.628055018193885e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.686596408807545e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,16 +28620,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28803,22 +28803,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.619826112322824e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-6.234920625768703e-14</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30696,7 +30696,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-4.576384261737228e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684189</v>
+        <v>2.467125758684188</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612445</v>
+        <v>25.26645167612444</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167227</v>
+        <v>95.11386581167224</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611224</v>
+        <v>209.3942148611223</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262241</v>
+        <v>313.827648226224</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635554</v>
+        <v>389.3309481635553</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745554</v>
+        <v>433.2056958745552</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364168</v>
+        <v>440.2154169364167</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735009</v>
+        <v>415.6829351735008</v>
       </c>
       <c r="P2" t="n">
-        <v>354.775768005985</v>
+        <v>354.7757680059848</v>
       </c>
       <c r="Q2" t="n">
         <v>266.4218267731073</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389458</v>
+        <v>154.9755884389457</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601601</v>
+        <v>56.21962822601598</v>
       </c>
       <c r="T2" t="n">
         <v>10.79984300864004</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947351</v>
+        <v>0.197370060694735</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320028654752584</v>
+        <v>1.320028654752583</v>
       </c>
       <c r="H3" t="n">
         <v>12.74869779721574</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915694</v>
+        <v>45.44835499915693</v>
       </c>
       <c r="J3" t="n">
         <v>124.7137598773044</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457275</v>
+        <v>213.1556797457274</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628363</v>
+        <v>286.6141164628361</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976173</v>
+        <v>334.4651551976172</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235678</v>
+        <v>343.3174526235677</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419447</v>
+        <v>314.0683966419446</v>
       </c>
       <c r="P3" t="n">
-        <v>252.067577064114</v>
+        <v>252.0675770641139</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5004998592947</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191922</v>
+        <v>81.95756858191919</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209293</v>
+        <v>24.51895330209292</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550982</v>
+        <v>5.32064181455098</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424897</v>
+        <v>0.08684399044424893</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508134</v>
+        <v>1.106667681508133</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83928175013596</v>
+        <v>9.839281750135957</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753552</v>
+        <v>33.28051536753551</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262505</v>
+        <v>78.24140508262502</v>
       </c>
       <c r="K4" t="n">
         <v>128.5746633606722</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944002</v>
+        <v>164.5313023944001</v>
       </c>
       <c r="M4" t="n">
         <v>173.4751893840431</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166039</v>
+        <v>169.3503371166038</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735316</v>
+        <v>156.4224464735315</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707655</v>
+        <v>133.8464257707654</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337655</v>
+        <v>92.66832740337651</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672026</v>
+        <v>49.75980320672024</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410083</v>
+        <v>19.28619950410082</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625661</v>
+        <v>4.728489184625659</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862555</v>
+        <v>0.06036369171862552</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860823</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -32074,13 +32074,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>138.5955196772183</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32311,13 +32311,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32326,7 +32326,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107744</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934302654</v>
+        <v>29.39913934302701</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124354</v>
+        <v>93.73779718124342</v>
       </c>
       <c r="L2" t="n">
-        <v>153.5645331935682</v>
+        <v>153.564533193568</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472826</v>
+        <v>202.8594626472825</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398259</v>
+        <v>210.8023533398257</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518142</v>
+        <v>185.584723751814</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507154</v>
+        <v>123.5427722507153</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865786</v>
+        <v>44.1161368986578</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.84203171541324</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136853</v>
+        <v>75.31424077136845</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829621</v>
+        <v>148.059736682962</v>
       </c>
       <c r="M3" t="n">
-        <v>192.331121275599</v>
+        <v>192.3311212755989</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402345</v>
+        <v>211.9757405402344</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975003</v>
+        <v>171.4721521975002</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497838</v>
+        <v>118.0931696497837</v>
       </c>
       <c r="Q3" t="n">
-        <v>126.3607574886861</v>
+        <v>28.51872577327316</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347894</v>
+        <v>106.3051715347893</v>
       </c>
       <c r="L4" t="n">
         <v>192.1213276547163</v>
@@ -34868,16 +34868,16 @@
         <v>213.0590663458837</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958325</v>
+        <v>213.4825094958324</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0075743875712</v>
+        <v>181.0075743875711</v>
       </c>
       <c r="P4" t="n">
-        <v>131.124985035659</v>
+        <v>131.1249850356589</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682166</v>
+        <v>6.506284151682124</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>522.0158803980279</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1903400640639</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0.7540807028593151</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35822,7 +35822,7 @@
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066194</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35974,7 +35974,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193518</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663299</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
